--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.36.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.36.xlsx
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1423,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1619,7 +1619,7 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -2081,7 +2081,7 @@
         <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -2221,7 +2221,7 @@
         <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2543,7 +2543,7 @@
         <v>145</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -2585,7 +2585,7 @@
         <v>149</v>
       </c>
       <c r="C124" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
